--- a/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
+++ b/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B26" s="65">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B57" s="65">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B59" s="65">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
